--- a/biology/Botanique/Hermann_Friedrich_Teichmeyer/Hermann_Friedrich_Teichmeyer.xlsx
+++ b/biology/Botanique/Hermann_Friedrich_Teichmeyer/Hermann_Friedrich_Teichmeyer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hermann Friedrich Teichmeyer, né le 30 avril 1685 à Hann. Münden et mort le 5 février 1746 à Iéna, est un médecin allemand
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Après avoir fait ses humanités dans sa ville natale, il va suivre les cours de l'Université de Leipzig où il eut pour maître Augustus Quirinus Rivinus[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après avoir fait ses humanités dans sa ville natale, il va suivre les cours de l'Université de Leipzig où il eut pour maître Augustus Quirinus Rivinus.
 Beau-père d'Albrecht von Haller, il est nommé professeur successivement de physique expérimentale en 1717, de médecine en 1719 et de botanique en 1727 à l'université d'Iéna. Pionnier de la médecine légale, il tient pour la première fois une conférence sur l'autopsie en 1724 et est l'auteur d'un des premiers manuels sur ce sujet.
 </t>
         </is>
@@ -543,7 +557,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Institutiones medicinae legalis vel forensis, 1723Réédité sous le titre Hermann Friedrich Teichmeyers Anweisung zur gerichtlichen Arzneygelahrheit : worinnen die vornehmsten Materien so theils im bürgerlichen Leben vorfallen theils bey Gerichten und Schöppenstühlen … abgehandelt werden en 1752</t>
         </is>
